--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +709,32 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>53300</v>
+      </c>
+      <c r="F8" s="3">
         <v>103700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>23900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>65200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,26 +744,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="3">
         <v>23300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>20200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,26 +779,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F10" s="3">
         <v>80400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>17000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>45000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +814,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,26 +833,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="3">
         <v>13300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>11700</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +864,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +899,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +934,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +969,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +985,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F17" s="3">
         <v>91400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>26900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>78300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,26 +1016,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F18" s="3">
         <v>12300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-13100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1051,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,25 +1070,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-900</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1034,26 +1101,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F21" s="3">
         <v>13300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-12300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1136,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,26 +1171,32 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F23" s="3">
         <v>11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-14000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,25 +1206,31 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1150,8 +1241,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1276,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F26" s="3">
         <v>11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-14100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1311,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2300</v>
+        <v>-3400</v>
       </c>
       <c r="E27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-24900</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1346,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1381,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1416,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1451,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,25 +1486,31 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>900</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1382,26 +1521,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2300</v>
+        <v>-3400</v>
       </c>
       <c r="E33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-24900</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1556,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1591,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2300</v>
+        <v>-3400</v>
       </c>
       <c r="E35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-24900</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1626,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1666,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1685,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1700,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>388900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>58200</v>
+      </c>
+      <c r="F41" s="3">
         <v>47700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,20 +1731,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,20 +1766,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F43" s="3">
         <v>42600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1801,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,20 +1836,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F45" s="3">
         <v>13300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,20 +1871,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>457400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>127500</v>
+      </c>
+      <c r="F46" s="3">
         <v>108600</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1906,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,20 +1941,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F48" s="3">
         <v>7900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1976,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +2011,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2046,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +2081,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F52" s="3">
         <v>17700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2116,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2151,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>487700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>156700</v>
+      </c>
+      <c r="F54" s="3">
         <v>134200</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2186,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2205,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,20 +2220,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,20 +2251,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,20 +2286,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>109700</v>
+      </c>
+      <c r="F59" s="3">
         <v>101300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,20 +2321,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>116800</v>
+      </c>
+      <c r="F60" s="3">
         <v>106800</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,20 +2356,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F61" s="3">
         <v>24600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2106,19 +2391,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2426,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2461,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2496,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2531,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>146500</v>
+      </c>
+      <c r="F66" s="3">
         <v>135300</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2566,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2585,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2616,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,19 +2651,25 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>153900</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>153900</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2351,8 +2686,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2721,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-174100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-171300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-180800</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2756,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2791,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2826,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2861,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>359800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-143700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-155000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2896,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2931,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2971,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2300</v>
+        <v>-3400</v>
       </c>
       <c r="E81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-24900</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +3006,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,26 +3025,28 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +3056,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3091,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3126,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3161,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3196,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,26 +3231,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F89" s="3">
         <v>26800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3266,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,26 +3285,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3316,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3351,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,26 +3386,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3421,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3440,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3471,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3506,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3541,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,26 +3576,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>27600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,26 +3611,32 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,26 +3646,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>330700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F102" s="3">
         <v>28900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>9400</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3679,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,45 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,29 +716,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E8" s="3">
         <v>50100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>53300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>65200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,29 +754,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E9" s="3">
         <v>10700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,29 +792,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E10" s="3">
         <v>39400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>43300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>80400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>45000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,8 +830,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,29 +848,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E12" s="3">
         <v>7900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11700</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -870,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,8 +922,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,8 +960,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -975,8 +998,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,29 +1013,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E17" s="3">
         <v>52300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>91400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,29 +1049,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1087,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,8 +1105,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1081,20 +1115,20 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,29 +1141,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1179,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1177,29 +1217,32 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,28 +1255,31 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1247,8 +1293,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,29 +1331,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,29 +1369,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24900</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1407,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,8 +1483,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,8 +1559,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1501,20 +1571,20 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,29 +1597,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1635,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,29 +1673,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1632,34 +1711,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1754,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,23 +1788,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>351700</v>
+      </c>
+      <c r="E41" s="3">
         <v>388900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>58200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,23 +1824,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3000</v>
+        <v>44600</v>
       </c>
       <c r="E42" s="3">
         <v>3000</v>
       </c>
       <c r="F42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1772,23 +1862,26 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E43" s="3">
         <v>45600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +1900,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1842,23 +1938,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E45" s="3">
         <v>19900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,23 +1976,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>457800</v>
+      </c>
+      <c r="E46" s="3">
         <v>457400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>127500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,8 +2014,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1947,23 +2052,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="E48" s="3">
         <v>9100</v>
       </c>
       <c r="F48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G48" s="3">
         <v>7900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2090,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2017,8 +2128,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,23 +2204,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2242,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,23 +2280,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>488600</v>
+      </c>
+      <c r="E54" s="3">
         <v>487700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>156700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>134200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2318,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,23 +2352,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,23 +2388,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,23 +2426,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E59" s="3">
         <v>111800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>109700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,23 +2464,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E60" s="3">
         <v>120400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>106800</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,23 +2502,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2397,8 +2540,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2406,14 +2552,14 @@
         <v>3900</v>
       </c>
       <c r="E62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,8 +2578,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,23 +2692,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E66" s="3">
         <v>128000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>146500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>135300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,8 +2730,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2666,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>153900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>153900</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>153900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2692,8 +2860,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,23 +2898,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-174100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-171300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-180800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2936,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,23 +3050,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E76" s="3">
         <v>359800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-143700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-155000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +3088,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,34 +3126,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2977,29 +3169,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3012,8 +3207,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,29 +3225,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3261,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,29 +3451,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E89" s="3">
         <v>3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3489,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,29 +3507,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3322,8 +3543,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,29 +3619,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,8 +3657,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,8 +3675,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3477,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,29 +3825,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>327500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>27600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3617,29 +3863,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,29 +3901,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E102" s="3">
         <v>330700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3685,6 +3937,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,48 +665,49 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,32 +720,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E8" s="3">
         <v>52100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>65200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,32 +761,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E9" s="3">
         <v>11900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,32 +802,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E10" s="3">
         <v>40200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>80400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,32 +862,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E12" s="3">
         <v>8200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11700</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +942,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,8 +983,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,32 +1040,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E17" s="3">
         <v>54600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,32 +1079,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,32 +1139,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,32 +1178,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1219,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1220,32 +1260,35 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,31 +1301,34 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1342,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,32 +1383,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,32 +1424,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24900</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,32 +1629,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1600,32 +1670,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,32 +1752,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,37 +1793,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,26 +1875,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E41" s="3">
         <v>351700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>388900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>58200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,26 +1914,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>201900</v>
+      </c>
+      <c r="E42" s="3">
         <v>44600</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3000</v>
       </c>
       <c r="F42" s="3">
         <v>3000</v>
       </c>
       <c r="G42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1865,26 +1955,29 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E43" s="3">
         <v>38900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1903,8 +1996,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,26 +2037,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E45" s="3">
         <v>22600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1979,26 +2078,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>457900</v>
+      </c>
+      <c r="E46" s="3">
         <v>457800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>457400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>127500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>108600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2119,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2055,26 +2160,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E48" s="3">
         <v>9800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>9100</v>
       </c>
       <c r="F48" s="3">
         <v>9100</v>
       </c>
       <c r="G48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H48" s="3">
         <v>7900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,8 +2201,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2242,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,26 +2324,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E52" s="3">
         <v>21000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,26 +2406,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>487900</v>
+      </c>
+      <c r="E54" s="3">
         <v>488600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>487700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>156700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>134200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,26 +2483,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,26 +2522,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,26 +2563,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E59" s="3">
         <v>113500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>111800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>109700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>101300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,26 +2604,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E60" s="3">
         <v>118700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>120400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>116800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,26 +2645,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2543,26 +2686,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="E62" s="3">
         <v>3900</v>
       </c>
       <c r="F62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,26 +2850,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E66" s="3">
         <v>125800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>128000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>146500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>135300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2837,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>153900</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>153900</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>153900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2863,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,26 +3072,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-176600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-174100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-171300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-180800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,26 +3236,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>363700</v>
+      </c>
+      <c r="E76" s="3">
         <v>362700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>359800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-143700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-155000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,37 +3318,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,32 +3364,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3424,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3235,23 +3434,23 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3264,8 +3463,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,32 +3668,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,32 +3728,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3546,8 +3767,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,32 +3849,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3890,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,32 +4071,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>327500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>27600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,32 +4112,35 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3904,32 +4153,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-153900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-37200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>330700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>ONTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,52 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,35 +723,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E8" s="3">
         <v>49400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>52100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>53300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>65200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -764,35 +767,38 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E9" s="3">
         <v>12100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,35 +811,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E10" s="3">
         <v>37300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>80400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,8 +855,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,35 +875,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E12" s="3">
         <v>9100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,8 +917,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +961,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,8 +1005,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1049,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,35 +1066,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E17" s="3">
         <v>58600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>91400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,35 +1108,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1152,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,35 +1172,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-300</v>
-      </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,35 +1214,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="E21" s="3">
-        <v>-1700</v>
+        <v>-8200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="G21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H21" s="3">
         <v>10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,31 +1258,34 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1263,35 +1302,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,34 +1346,37 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1345,8 +1390,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,35 +1434,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1427,35 +1478,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1522,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1566,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1610,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1654,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,35 +1698,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
-      </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,35 +1742,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1786,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,35 +1830,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,40 +1874,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1923,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1943,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,29 +1961,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E41" s="3">
         <v>197800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>351700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>388900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,29 +2003,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E42" s="3">
         <v>201900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>44600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3000</v>
       </c>
       <c r="G42" s="3">
         <v>3000</v>
       </c>
       <c r="H42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="3">
         <v>5000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1958,29 +2047,32 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E43" s="3">
         <v>36800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2091,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,29 +2135,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E45" s="3">
         <v>21400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,29 +2179,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>449100</v>
+      </c>
+      <c r="E46" s="3">
         <v>457900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>457800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>457400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>127500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>108600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2223,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,8 +2267,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2172,20 +2279,20 @@
         <v>8800</v>
       </c>
       <c r="E48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F48" s="3">
         <v>9800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>9100</v>
       </c>
       <c r="G48" s="3">
         <v>9100</v>
       </c>
       <c r="H48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I48" s="3">
         <v>7900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,8 +2311,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2355,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2399,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,29 +2443,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E52" s="3">
         <v>21200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2487,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2531,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>480500</v>
+      </c>
+      <c r="E54" s="3">
         <v>487900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>488600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>487700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>156700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>134200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2575,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2595,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,29 +2613,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,29 +2655,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,29 +2699,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E59" s="3">
         <v>114200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>113500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>111800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>109700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,29 +2743,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E60" s="3">
         <v>118300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>118700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>120400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>116800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>106800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,29 +2787,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2689,29 +2831,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3900</v>
       </c>
       <c r="F62" s="3">
         <v>3900</v>
       </c>
       <c r="G62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2875,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2919,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2963,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3007,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E66" s="3">
         <v>124200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>125800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>128000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>146500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>135300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3051,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3071,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3113,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3157,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3008,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>153900</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>153900</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>153900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3034,8 +3201,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,29 +3245,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-195500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-186000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-176600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-174100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-171300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-180800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3289,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3333,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3377,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,29 +3421,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>355100</v>
+      </c>
+      <c r="E76" s="3">
         <v>363700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>362700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>359800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-143700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-155000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3465,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,40 +3509,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,35 +3558,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3602,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,35 +3622,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
         <v>1100</v>
       </c>
       <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3664,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3708,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3752,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3796,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3840,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,35 +3884,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,8 +3928,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,35 +3948,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3770,8 +3990,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4034,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,35 +4078,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-155000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-42500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3893,8 +4122,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4142,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4184,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4228,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4272,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,35 +4316,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>327500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>27600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4115,8 +4360,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4124,26 +4372,26 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,35 +4404,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-153900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>330700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,6 +4446,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>ONTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,60 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,41 +728,47 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>48500</v>
+      </c>
+      <c r="F8" s="3">
         <v>52000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>49400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>52100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>50100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>53300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>103700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>23900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>65200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,41 +778,47 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F9" s="3">
         <v>12700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>10700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>10000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>23300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>20200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -814,41 +828,47 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F10" s="3">
         <v>39300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>37300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>40200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>39400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>43300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>80400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>17000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>45000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,8 +878,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,41 +902,43 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>13300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,8 +948,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,8 +998,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,8 +1048,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1098,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,41 +1119,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>63700</v>
+      </c>
+      <c r="F17" s="3">
         <v>61600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>58600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>54600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>52300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>43700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>91400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>78300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,41 +1165,47 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-9200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>9600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>12300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-13100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,8 +1215,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,40 +1239,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-900</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1217,41 +1285,47 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-8200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>13300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-12300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,13 +1335,19 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1276,22 +1356,22 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1305,41 +1385,47 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>11400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,40 +1435,46 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1393,8 +1485,14 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,41 +1535,47 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1481,41 +1585,47 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-24900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1525,8 +1635,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1685,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1613,8 +1735,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1785,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,40 +1835,46 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>900</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1745,41 +1885,47 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-24900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1789,8 +1935,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,41 +1985,47 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-24900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,46 +2035,52 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1926,8 +2090,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2114,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,35 +2134,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>97500</v>
+      </c>
+      <c r="F41" s="3">
         <v>164900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>197800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>351700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>388900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>58200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>47700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2006,35 +2180,41 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>261500</v>
+      </c>
+      <c r="F42" s="3">
         <v>217600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>201900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>44600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>5000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,35 +2230,41 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F43" s="3">
         <v>46100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>36800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>38900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>45600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>48600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>42600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2280,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,35 +2330,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F45" s="3">
         <v>20400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>21400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>22600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>17600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>13300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,35 +2380,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>406800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>427200</v>
+      </c>
+      <c r="F46" s="3">
         <v>449100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>457900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>457800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>457400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>127500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>108600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,8 +2430,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2270,35 +2480,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F48" s="3">
         <v>8800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>9800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2314,31 +2530,37 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2358,8 +2580,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2630,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,35 +2680,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F52" s="3">
         <v>22600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>21200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>21000</v>
       </c>
       <c r="G52" s="3">
         <v>21200</v>
       </c>
       <c r="H52" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J52" s="3">
         <v>20200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>17700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2730,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,35 +2780,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>445200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>462100</v>
+      </c>
+      <c r="F54" s="3">
         <v>480500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>487900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>488600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>487700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>156700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>134200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2830,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2854,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,35 +2874,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2658,35 +2920,41 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2500</v>
       </c>
       <c r="H58" s="3">
         <v>2400</v>
       </c>
       <c r="I58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,35 +2970,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>113300</v>
+      </c>
+      <c r="F59" s="3">
         <v>115000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>114200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>113500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>111800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>109700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>101300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2746,35 +3020,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E60" s="3">
         <v>120100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>120100</v>
+      </c>
+      <c r="G60" s="3">
         <v>118300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>118700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>120400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>116800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>106800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,35 +3070,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>25700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>24600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2834,34 +3120,40 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4000</v>
       </c>
       <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3900</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3170,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3220,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3270,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,35 +3320,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>129600</v>
+      </c>
+      <c r="F66" s="3">
         <v>125400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>124200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>125800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>128000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>146500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>135300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3370,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3394,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3440,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,8 +3490,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3178,17 +3514,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>153900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>153900</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3204,8 +3540,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,35 +3590,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-227200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-211000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-195500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-186000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-176600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-174100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-171300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-180800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3292,8 +3640,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3690,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3740,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,35 +3790,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>332500</v>
+      </c>
+      <c r="F76" s="3">
         <v>355100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>363700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>362700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>359800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-143700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-155000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3840,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,46 +3890,52 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3561,41 +3945,47 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-24900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3605,8 +3995,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,41 +4019,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3667,8 +4065,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +4115,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +4165,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4215,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4265,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,41 +4315,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>10700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3931,8 +4365,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,41 +4389,43 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3993,8 +4435,14 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4485,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,41 +4535,47 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-21100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-155000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-42500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4125,8 +4585,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,8 +4609,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4187,8 +4655,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4705,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4755,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,41 +4805,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>327500</v>
       </c>
       <c r="H100" s="3">
         <v>-1700</v>
       </c>
       <c r="I100" s="3">
+        <v>327500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>27600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,41 +4855,47 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4407,41 +4905,47 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-32800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-153900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-37200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>330700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>28900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>9400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4449,6 +4953,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>ONTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,64 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,44 +735,47 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E8" s="3">
         <v>48200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>52000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>50100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>53300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,44 +788,47 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E9" s="3">
         <v>13300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,44 +841,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E10" s="3">
         <v>34900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>39400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>43300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -884,8 +894,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,44 +917,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="E12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F12" s="3">
         <v>10600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,31 +1021,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1054,31 +1074,34 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1104,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,44 +1147,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E17" s="3">
         <v>64300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>54600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>91400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,44 +1198,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1251,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,44 +1274,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1291,44 +1325,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1341,8 +1378,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1362,19 +1402,19 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1391,44 +1431,47 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,8 +1484,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1450,34 +1496,34 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1491,8 +1537,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,44 +1590,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,44 +1643,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1696,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1741,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,44 +1908,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1891,44 +1961,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2014,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,44 +2067,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,49 +2120,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2178,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,38 +2222,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E41" s="3">
         <v>79900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>164900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>197800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>351700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>388900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2273,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E42" s="3">
         <v>265000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>261500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>217600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>201900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>44600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3000</v>
       </c>
       <c r="J42" s="3">
         <v>3000</v>
       </c>
       <c r="K42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,38 +2326,41 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E43" s="3">
         <v>39800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2379,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2336,38 +2432,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E45" s="3">
         <v>22200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,38 +2485,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>393400</v>
+      </c>
+      <c r="E46" s="3">
         <v>406800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>427200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>449100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>457900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>457800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>457400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>127500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>108600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2538,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2486,38 +2591,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
         <v>14300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8800</v>
       </c>
       <c r="G48" s="3">
         <v>8800</v>
       </c>
       <c r="H48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I48" s="3">
         <v>9800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>9100</v>
       </c>
       <c r="J48" s="3">
         <v>9100</v>
       </c>
       <c r="K48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L48" s="3">
         <v>7900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,17 +2644,20 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2562,8 +2673,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2586,8 +2697,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,38 +2803,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E52" s="3">
         <v>21900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2856,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,38 +2909,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>430300</v>
+      </c>
+      <c r="E54" s="3">
         <v>445200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>462100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>480500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>487900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>488600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>487700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>156700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +2962,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,38 +3006,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,8 +3057,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2935,29 +3069,29 @@
         <v>1800</v>
       </c>
       <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,38 +3110,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E59" s="3">
         <v>112100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>113300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>115000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>113500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>111800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>109700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>101300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3026,38 +3163,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E60" s="3">
         <v>117500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>120100</v>
       </c>
       <c r="F60" s="3">
         <v>120100</v>
       </c>
       <c r="G60" s="3">
+        <v>120100</v>
+      </c>
+      <c r="H60" s="3">
         <v>118300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>118700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>120400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>116800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>106800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3076,38 +3216,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3126,38 +3269,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E62" s="3">
         <v>7600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3900</v>
       </c>
       <c r="I62" s="3">
         <v>3900</v>
       </c>
       <c r="J62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3322,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,38 +3481,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E66" s="3">
         <v>125800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>129600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>125400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>124200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>125800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>128000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>146500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>135300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3376,8 +3534,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3520,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>153900</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>153900</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>153900</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3546,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,38 +3767,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-241600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-227200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-211000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-195500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-186000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-176600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-174100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-171300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-180800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,8 +3820,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,38 +3979,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>315900</v>
+      </c>
+      <c r="E76" s="3">
         <v>319400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>332500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>355100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>363700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>362700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>359800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-143700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-155000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,8 +4032,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,49 +4085,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3951,44 +4143,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4196,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,44 +4219,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1200</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4270,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,44 +4535,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4371,8 +4588,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,8 +4611,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4400,35 +4621,35 @@
         <v>-700</v>
       </c>
       <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4441,8 +4662,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,44 +4768,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-155000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +4821,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4661,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,44 +5054,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>327500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>27600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4861,8 +5107,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4870,7 +5119,7 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4879,26 +5128,26 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4911,44 +5160,47 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-67400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-153900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>330700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4959,6 +5211,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,71 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,50 +739,56 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F8" s="3">
         <v>47600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>48200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>48500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>52000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>49400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>52100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>50100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>53300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>103700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>23900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>65200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -791,50 +798,56 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="E9" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="F9" s="3">
         <v>12900</v>
       </c>
       <c r="G9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I9" s="3">
         <v>12700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>12100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>23300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>20200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -844,50 +857,56 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F10" s="3">
         <v>34700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>34900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>35600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>39300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>37300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>40200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>39400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>43300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>80400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>17000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>45000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,8 +916,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,50 +943,52 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E12" s="3">
         <v>11100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G12" s="3">
         <v>10800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>9600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>13300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>11700</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,8 +998,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,20 +1057,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>600</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1050,11 +1089,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1077,22 +1116,28 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1103,11 +1148,11 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1130,8 +1175,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,50 +1199,52 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>60200</v>
+      </c>
+      <c r="F17" s="3">
         <v>62300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>64300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>63700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>61600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>58600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>54600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>52300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>43700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>91400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>26900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>78300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,50 +1254,56 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-16100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-15200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>12300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-13100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1313,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,49 +1340,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
       <c r="I20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-900</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1328,50 +1395,56 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-14800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-14100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-8500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-12300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1454,14 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1405,22 +1484,22 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1434,50 +1513,56 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-16200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>11400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,49 +1572,55 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1540,8 +1631,14 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,50 +1690,56 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-16200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>11200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,50 +1749,56 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-24900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1808,14 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1867,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1926,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1985,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,49 +2044,55 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>900</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1964,50 +2103,56 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-24900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2162,14 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,50 +2221,56 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-24900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,55 +2280,61 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2344,14 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2371,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,44 +2394,46 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F41" s="3">
         <v>36400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>79900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>97500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>164900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>197800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>351700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>388900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>58200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>47700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,44 +2449,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>301100</v>
+      </c>
+      <c r="F42" s="3">
         <v>305500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>265000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>261500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>217600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>201900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>44600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,44 +2508,50 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43800</v>
+      </c>
+      <c r="F43" s="3">
         <v>31400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>39800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>42100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>46100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>36800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>38900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>45600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>48600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>42600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,8 +2567,14 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2435,44 +2626,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F45" s="3">
         <v>20200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>26100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>20400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>21400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>22600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>19900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>17600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,44 +2685,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>370100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>391300</v>
+      </c>
+      <c r="F46" s="3">
         <v>393400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>406800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>427200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>449100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>457900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>457800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>457400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>127500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>108600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2744,14 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2594,44 +2803,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F48" s="3">
         <v>14100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>15400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,23 +2862,29 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2676,11 +2897,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2700,8 +2921,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2980,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,44 +3039,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F52" s="3">
         <v>20800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>21900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>19500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>22600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>21200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>21000</v>
       </c>
       <c r="J52" s="3">
         <v>21200</v>
       </c>
       <c r="K52" s="3">
+        <v>21000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="M52" s="3">
         <v>20200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>17700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +3098,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,44 +3157,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>402400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>425500</v>
+      </c>
+      <c r="F54" s="3">
         <v>430300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>445200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>462100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>480500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>487900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>488600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>487700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>156700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>134200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3216,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3243,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,44 +3266,46 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,44 +3321,50 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2500</v>
       </c>
       <c r="K58" s="3">
         <v>2400</v>
       </c>
       <c r="L58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3113,44 +3380,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>104600</v>
+      </c>
+      <c r="F59" s="3">
         <v>100800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>112100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>113300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>115000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>114200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>113500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>111800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>109700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>101300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,44 +3439,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>110700</v>
+      </c>
+      <c r="F60" s="3">
         <v>106800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>117500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>120100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>120100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>118300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>118700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>120400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>116800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>106800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,44 +3498,50 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>25700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>24600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3272,43 +3557,49 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F62" s="3">
         <v>7300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>4000</v>
       </c>
       <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N62" s="3">
+        <v>3900</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3616,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3675,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3734,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,44 +3793,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>117500</v>
+      </c>
+      <c r="F66" s="3">
         <v>114400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>125800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>129600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>125400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>124200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>125800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>128000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>146500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>135300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3852,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3879,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3934,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3993,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3691,17 +4026,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>153900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>153900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3717,8 +4052,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,44 +4111,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-271300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-253700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-241600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-227200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-211000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-195500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-186000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-176600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-174100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-171300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-180800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +4170,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4229,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4288,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,44 +4347,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>290900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>308000</v>
+      </c>
+      <c r="F76" s="3">
         <v>315900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>319400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>332500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>355100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>363700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>362700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>359800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-143700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-155000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,8 +4406,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,55 +4465,61 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4146,50 +4529,56 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-24900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,8 +4588,14 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,8 +4615,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4229,41 +4626,41 @@
         <v>1400</v>
       </c>
       <c r="E83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4273,8 +4670,14 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4729,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4788,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4847,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4906,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,50 +4965,56 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>10700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>26800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +5024,14 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,50 +5051,52 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +5106,14 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +5165,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,50 +5224,56 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-40500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-46500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-21100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-155000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-42500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-11000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4824,8 +5283,14 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5310,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5365,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5424,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5483,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,50 +5542,56 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-14200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>327500</v>
       </c>
       <c r="K100" s="3">
         <v>-1700</v>
       </c>
       <c r="L100" s="3">
+        <v>327500</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>27600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5110,50 +5601,56 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5163,50 +5660,56 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-43600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-17500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-67400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-32800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-153900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-37200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>330700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>10500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>28900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>9400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5214,6 +5717,12 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,75 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,53 +746,56 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E8" s="3">
         <v>43100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>49400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>103700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -804,53 +808,56 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E9" s="3">
         <v>12400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,53 +870,56 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E10" s="3">
         <v>30700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>39300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>80400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>45000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +932,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,53 +958,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E12" s="3">
         <v>10200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>11100</v>
       </c>
       <c r="F12" s="3">
         <v>11100</v>
       </c>
       <c r="G12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H12" s="3">
         <v>10800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11700</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1018,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,23 +1080,26 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1115,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1122,26 +1142,29 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1154,8 +1177,8 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1181,8 +1204,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1201,53 +1227,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E17" s="3">
         <v>63000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>60200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,53 +1287,56 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,8 +1349,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1342,53 +1375,54 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1401,53 +1435,56 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1460,8 +1497,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1490,19 +1530,19 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1519,53 +1559,56 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,8 +1621,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1587,43 +1633,43 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1637,8 +1683,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,53 +1745,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1755,53 +1807,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1814,8 +1869,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1931,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1932,8 +1993,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1991,8 +2055,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2050,53 +2117,56 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2109,53 +2179,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,8 +2241,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2227,53 +2303,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,58 +2365,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2350,8 +2432,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2373,8 +2458,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2396,47 +2482,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>79900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>164900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>197800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>351700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>388900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,47 +2542,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>215400</v>
+      </c>
+      <c r="E42" s="3">
         <v>214900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>301100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>305500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>265000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>261500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>217600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>201900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>44600</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3000</v>
       </c>
       <c r="M42" s="3">
         <v>3000</v>
       </c>
       <c r="N42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O42" s="3">
         <v>5000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2514,47 +2604,50 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E43" s="3">
         <v>33500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>45600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>42600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2666,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2632,47 +2728,50 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E45" s="3">
         <v>21000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2691,47 +2790,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>291600</v>
+      </c>
+      <c r="E46" s="3">
         <v>370100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>391300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>393400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>406800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>427200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>449100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>457900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>457800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>457400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>127500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>108600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +2852,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2809,47 +2914,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E48" s="3">
         <v>11100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>8800</v>
       </c>
       <c r="J48" s="3">
         <v>8800</v>
       </c>
       <c r="K48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="L48" s="3">
         <v>9800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>9100</v>
       </c>
       <c r="M48" s="3">
         <v>9100</v>
       </c>
       <c r="N48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O48" s="3">
         <v>7900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2868,26 +2976,29 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3014,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2927,8 +3038,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2986,8 +3100,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3045,47 +3162,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E52" s="3">
         <v>19500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17700</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3104,8 +3224,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3163,47 +3286,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>320700</v>
+      </c>
+      <c r="E54" s="3">
         <v>402400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>425500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>430300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>445200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>462100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>480500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>487900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>488600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>487700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>156700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>134200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3348,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3245,8 +3374,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3268,47 +3398,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,47 +3458,50 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1800</v>
       </c>
       <c r="G58" s="3">
         <v>1800</v>
       </c>
       <c r="H58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3386,47 +3520,50 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E59" s="3">
         <v>101100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>104600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>112100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>113300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>115000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>114200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>113500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>111800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>109700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3445,47 +3582,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E60" s="3">
         <v>105600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>110700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>106800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>117500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>120100</v>
       </c>
       <c r="I60" s="3">
         <v>120100</v>
       </c>
       <c r="J60" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K60" s="3">
         <v>118300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>118700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>116800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>106800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3504,8 +3644,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3513,38 +3656,38 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3563,47 +3706,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
         <v>5900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3900</v>
       </c>
       <c r="L62" s="3">
         <v>3900</v>
       </c>
       <c r="M62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3622,8 +3768,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3681,8 +3830,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3740,8 +3892,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3799,47 +3954,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E66" s="3">
         <v>111500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>114400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>125800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>129600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>125400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>124200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>125800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>128000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>146500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>135300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3858,8 +4016,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3881,8 +4042,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3940,8 +4102,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3999,8 +4164,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4032,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>153900</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>153900</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>153900</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4058,8 +4226,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4117,47 +4288,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-284200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-271300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-253700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-241600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-227200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-211000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-195500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-186000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-176600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-174100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-171300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-180800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4176,8 +4350,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4235,8 +4412,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4294,8 +4474,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4353,47 +4536,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E76" s="3">
         <v>290900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>308000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>315900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>319400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>332500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>355100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>363700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>362700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>359800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-143700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-155000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4412,8 +4598,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4471,58 +4660,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4535,53 +4727,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4789,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4617,8 +4815,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4626,44 +4825,44 @@
         <v>1400</v>
       </c>
       <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1200</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K83" s="3">
         <v>1100</v>
       </c>
       <c r="L83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4676,8 +4875,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4735,8 +4937,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4794,8 +4999,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4853,8 +5061,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4912,8 +5123,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4971,53 +5185,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5030,8 +5247,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5053,53 +5273,54 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-700</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
       </c>
       <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5333,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5171,8 +5395,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5230,53 +5457,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>88800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-40500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-155000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5289,8 +5519,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5312,8 +5545,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5371,8 +5605,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5430,8 +5667,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5489,8 +5729,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5548,53 +5791,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>327500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>27600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5607,8 +5853,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5616,16 +5865,16 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5634,26 +5883,26 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5666,53 +5915,56 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="E102" s="3">
         <v>73800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-67400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-32800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-153900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-37200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>330700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5723,6 +5975,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,79 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -749,56 +750,59 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E8" s="3">
         <v>42100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>46600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>49400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>103700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>65200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,56 +815,59 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E9" s="3">
         <v>11200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,56 +880,59 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E10" s="3">
         <v>30900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>39300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>80400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>45000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -935,8 +945,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,56 +972,57 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E12" s="3">
         <v>9900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11100</v>
       </c>
       <c r="G12" s="3">
         <v>11100</v>
       </c>
       <c r="H12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I12" s="3">
         <v>10800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11700</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1035,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,26 +1100,29 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1145,29 +1165,32 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,8 +1203,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1207,8 +1230,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,56 +1254,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E17" s="3">
         <v>57900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>64300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>91400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,56 +1317,59 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1382,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1376,56 +1409,57 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,56 +1472,59 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1500,8 +1537,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1533,19 +1573,19 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1562,56 +1602,59 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,55 +1667,58 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1686,8 +1732,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1748,56 +1797,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,56 +1862,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-24900</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +1927,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,8 +1992,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,8 +2057,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,56 +2187,59 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,56 +2252,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-24900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,8 +2317,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,56 +2382,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-24900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,61 +2447,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2517,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,50 +2569,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E41" s="3">
         <v>25200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>164900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>197800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>351700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>388900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,50 +2632,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>202900</v>
+      </c>
+      <c r="E42" s="3">
         <v>215400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>214900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>301100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>305500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>265000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>261500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>217600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>201900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>44600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>3000</v>
       </c>
       <c r="N42" s="3">
         <v>3000</v>
       </c>
       <c r="O42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P42" s="3">
         <v>5000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,50 +2697,53 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E43" s="3">
         <v>31300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>48600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>42600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2669,8 +2762,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2731,50 +2827,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E45" s="3">
         <v>19700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,50 +2892,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>258500</v>
+      </c>
+      <c r="E46" s="3">
         <v>291600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>370100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>391300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>393400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>406800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>427200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>449100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>457900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>457800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>457400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>127500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>108600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2855,8 +2957,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2917,50 +3022,53 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E48" s="3">
         <v>9400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>8800</v>
       </c>
       <c r="K48" s="3">
         <v>8800</v>
       </c>
       <c r="L48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="M48" s="3">
         <v>9800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>9100</v>
       </c>
       <c r="N48" s="3">
         <v>9100</v>
       </c>
       <c r="O48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P48" s="3">
         <v>7900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,29 +3087,32 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3128,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3041,8 +3152,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,50 +3282,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E52" s="3">
         <v>18200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3347,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,50 +3412,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E54" s="3">
         <v>320700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>402400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>425500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>430300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>445200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>462100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>480500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>487900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>488600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>487700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>156700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>134200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,8 +3477,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,50 +3529,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,50 +3592,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1800</v>
       </c>
       <c r="H58" s="3">
         <v>1800</v>
       </c>
       <c r="I58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,50 +3657,53 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E59" s="3">
         <v>94000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>104600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>112100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>113300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>115000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>113500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>111800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>109700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3585,50 +3722,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E60" s="3">
         <v>99000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>110700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>117500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>120100</v>
       </c>
       <c r="J60" s="3">
         <v>120100</v>
       </c>
       <c r="K60" s="3">
+        <v>120100</v>
+      </c>
+      <c r="L60" s="3">
         <v>118300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>118700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>120400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>116800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>106800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3787,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3659,38 +3802,38 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3709,50 +3852,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
         <v>4800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3900</v>
       </c>
       <c r="M62" s="3">
         <v>3900</v>
       </c>
       <c r="N62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O62" s="3">
         <v>4000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,8 +3917,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3895,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,50 +4112,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E66" s="3">
         <v>103800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>114400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>125800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>129600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>125400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>125800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>128000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>146500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>135300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4019,8 +4177,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4203,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>153900</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>153900</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>153900</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4229,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,50 +4462,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-295600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-284200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-271300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-253700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-241600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-227200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-211000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-195500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-186000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-176600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-174100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-171300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-180800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4353,8 +4527,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,50 +4722,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E76" s="3">
         <v>217000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>290900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>308000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>315900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>319400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>332500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>355100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>363700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>362700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>359800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-143700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-155000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4601,8 +4787,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,61 +4852,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4730,56 +4922,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-24900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4987,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,56 +5014,57 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
         <v>1400</v>
       </c>
       <c r="F83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1200</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
       </c>
       <c r="K83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L83" s="3">
         <v>1100</v>
       </c>
       <c r="M83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4878,8 +5077,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,56 +5402,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5250,8 +5467,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,56 +5494,57 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-700</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
       </c>
       <c r="I91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5336,8 +5557,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,56 +5687,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>88800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-155000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5522,8 +5752,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,8 +5779,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5608,8 +5842,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,56 +6037,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-71900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>327500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>27600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5856,28 +6102,31 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -5886,26 +6135,26 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5918,56 +6167,59 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-75600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>73800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-43600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-67400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-32800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-153900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>330700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5978,6 +6230,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
